--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:52:07+00:00</t>
+    <t>2022-05-23T10:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:54:56+00:00</t>
+    <t>2022-05-23T11:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:06:18+00:00</t>
+    <t>2022-05-23T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:08:31+00:00</t>
+    <t>2022-05-23T11:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:30:07+00:00</t>
+    <t>2022-05-23T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:46:37+00:00</t>
+    <t>2022-05-23T12:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T12:36:41+00:00</t>
+    <t>2022-05-24T14:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T14:28:11+00:00</t>
+    <t>2022-05-24T16:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-conditional-logic-id.xlsx
+++ b/StructureDefinition-conditional-logic-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T16:07:29+00:00</t>
+    <t>2022-05-24T18:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
